--- a/biology/Histoire de la zoologie et de la botanique/Kusn/Kusn..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Kusn/Kusn..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nikolaï Ivanovitch Kouznetsov (Никола́й Ива́нович Кузнецо́в), né le 5 (17) décembre 1864 à Saint-Pétersbourg et mort le 22 mai 1932 à Léningrad, est un géographe et botaniste russe et soviétique qui s'est surtout consacré à la flore du Caucase.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir terminé le lycée militaire N°3 de Saint-Pétersbourg, Kouznetsov entre au département des sciences naturelles de la faculté de physique et de mathématique de l'université impériale de Saint-Pétersbourg à l'automne 1884. À la fin de ses études en 1888, il entre comme fonctionnaire au ministère des domaines de l'État. Il fait plusieurs expéditions avec ses collègues Nikolaï Busch et Alexandre Fomine dans le Caucase entre 1888 et 1890, pour le compte de la Société impériale de géographie. L'étude de la flore du Caucase devient alors le but essentiel de sa carrière. Il est nommé en 1891 assistant-conservateur au jardin botanique impérial. En 1894, il donne des conférences aux étudiantes des cours pédagogiques Friobelev, puis participe l'été de cette année à des expéditions scientifiques en tant que botaniste. Ces expéditions, commandées par le ministère de l'agriculture et des domaines de l'État ont pour but d'étudier les sources des principaux fleuves de Russie européenne.
 Kouznetsov devient maître en botanique en 1895 après avoir présenté une thèse sur l'espèce Eugentiana du genre Gentiana. Il est nommé en octobre 1895 professeur extraordinaire de l'université de Iouriev (ex-Dorpat) à la chaire de botanique et directeur du jardin botanique de l'université. Il est nommé professeur ordinaire en 1901. Cette période est la plus féconde pour Kouznetsov. Il fonde une revue savante  Travaux du jardin botanique de l'université de Iouriev (1900-1915), continue à étudier la flore du Caucase, et collabore à la publication de Flora caucasica critica.
@@ -547,7 +561,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mатериалы к лишайниковой флоре Новой Земли/ Scripta Botanica. — 1886—1887. — Т. I, вып. 2. — № 5.
 Исследование флоры Шенкурского и Холмогорского уездов Архангельской губернии // Труды Санкт-Петербургского общества естествоиспытателей. — 1888. — Т. XX.
@@ -599,7 +615,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(ru) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en russe intitulé « Кузнецов, Николай Иванович (ботаник) » (voir la liste des auteurs).</t>
         </is>
